--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil-dificultad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1317">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>41.573 (729)</t>
   </si>
   <si>
-    <t>11.601 (729)</t>
+    <t>11.602 (729)</t>
   </si>
   <si>
     <t>11.671 (729)</t>
@@ -229,7 +229,7 @@
     <t>37.393 (61)</t>
   </si>
   <si>
-    <t>11.295 (61)</t>
+    <t>11.262 (61)</t>
   </si>
   <si>
     <t>12.836 (61)</t>
@@ -373,7 +373,7 @@
     <t>40.126 (643)</t>
   </si>
   <si>
-    <t>11.555 (643)</t>
+    <t>11.557 (643)</t>
   </si>
   <si>
     <t>11.785 (643)</t>
@@ -427,7 +427,7 @@
     <t>35.973 (110)</t>
   </si>
   <si>
-    <t>11.736 (110)</t>
+    <t>11.718 (110)</t>
   </si>
   <si>
     <t>12.9 (110)</t>
@@ -535,7 +535,7 @@
     <t>41.723 (440)</t>
   </si>
   <si>
-    <t>11.814 (440)</t>
+    <t>11.818 (440)</t>
   </si>
   <si>
     <t>11.752 (440)</t>
@@ -589,7 +589,7 @@
     <t>40.61 (705)</t>
   </si>
   <si>
-    <t>11.373 (705)</t>
+    <t>11.372 (705)</t>
   </si>
   <si>
     <t>11.713 (705)</t>
@@ -643,7 +643,7 @@
     <t>36.938 (178)</t>
   </si>
   <si>
-    <t>12.045 (178)</t>
+    <t>12.039 (178)</t>
   </si>
   <si>
     <t>12.466 (178)</t>
@@ -691,7 +691,7 @@
     <t>38.222 (9)</t>
   </si>
   <si>
-    <t>13.0 (9)</t>
+    <t>12.889 (9)</t>
   </si>
   <si>
     <t>13.778 (9)</t>
@@ -745,7 +745,7 @@
     <t>41.194 (325)</t>
   </si>
   <si>
-    <t>12.129 (325)</t>
+    <t>12.135 (325)</t>
   </si>
   <si>
     <t>11.775 (325)</t>
@@ -799,7 +799,7 @@
     <t>40.923 (731)</t>
   </si>
   <si>
-    <t>11.294 (731)</t>
+    <t>11.293 (731)</t>
   </si>
   <si>
     <t>11.702 (731)</t>
@@ -853,7 +853,7 @@
     <t>38.587 (259)</t>
   </si>
   <si>
-    <t>11.88 (259)</t>
+    <t>11.876 (259)</t>
   </si>
   <si>
     <t>12.216 (259)</t>
@@ -907,7 +907,7 @@
     <t>33.941 (17)</t>
   </si>
   <si>
-    <t>11.882 (17)</t>
+    <t>11.824 (17)</t>
   </si>
   <si>
     <t>13.353 (17)</t>
@@ -1069,7 +1069,7 @@
     <t>39.01 (105)</t>
   </si>
   <si>
-    <t>12.01 (105)</t>
+    <t>12.0 (105)</t>
   </si>
   <si>
     <t>13.21 (105)</t>
@@ -1171,7 +1171,7 @@
     <t>38.789 (379)</t>
   </si>
   <si>
-    <t>12.161 (379)</t>
+    <t>12.158 (379)</t>
   </si>
   <si>
     <t>12.586 (379)</t>
@@ -1225,7 +1225,7 @@
     <t>40.302 (669)</t>
   </si>
   <si>
-    <t>11.809 (669)</t>
+    <t>11.81 (669)</t>
   </si>
   <si>
     <t>11.84 (669)</t>
@@ -1279,7 +1279,7 @@
     <t>36.932 (190)</t>
   </si>
   <si>
-    <t>12.374 (190)</t>
+    <t>12.368 (190)</t>
   </si>
   <si>
     <t>13.3 (190)</t>
@@ -1489,7 +1489,7 @@
     <t>40.715 (641)</t>
   </si>
   <si>
-    <t>11.796 (641)</t>
+    <t>11.794 (641)</t>
   </si>
   <si>
     <t>11.906 (641)</t>
@@ -1543,7 +1543,7 @@
     <t>37.643 (308)</t>
   </si>
   <si>
-    <t>12.211 (308)</t>
+    <t>12.214 (308)</t>
   </si>
   <si>
     <t>12.795 (308)</t>
@@ -1594,7 +1594,7 @@
     <t>33.2 (35)</t>
   </si>
   <si>
-    <t>12.314 (35)</t>
+    <t>12.286 (35)</t>
   </si>
   <si>
     <t>13.057 (35)</t>
@@ -1714,7 +1714,7 @@
     <t>40.062 (584)</t>
   </si>
   <si>
-    <t>11.854 (584)</t>
+    <t>11.853 (584)</t>
   </si>
   <si>
     <t>12.039 (584)</t>
@@ -1981,7 +1981,7 @@
     <t>38.576 (632)</t>
   </si>
   <si>
-    <t>12.146 (632)</t>
+    <t>12.144 (632)</t>
   </si>
   <si>
     <t>12.538 (632)</t>
@@ -2143,7 +2143,7 @@
     <t>37.638 (246)</t>
   </si>
   <si>
-    <t>12.846 (246)</t>
+    <t>12.841 (246)</t>
   </si>
   <si>
     <t>13.122 (246)</t>
@@ -2251,7 +2251,7 @@
     <t>37.481 (289)</t>
   </si>
   <si>
-    <t>12.457 (289)</t>
+    <t>12.453 (289)</t>
   </si>
   <si>
     <t>13.052 (289)</t>
@@ -2305,7 +2305,7 @@
     <t>37.133 (30)</t>
   </si>
   <si>
-    <t>11.8 (30)</t>
+    <t>11.833 (30)</t>
   </si>
   <si>
     <t>13.633 (30)</t>
@@ -2458,7 +2458,7 @@
     <t>39.289 (509)</t>
   </si>
   <si>
-    <t>12.086 (509)</t>
+    <t>12.084 (509)</t>
   </si>
   <si>
     <t>12.617 (509)</t>
@@ -2512,7 +2512,7 @@
     <t>37.771 (420)</t>
   </si>
   <si>
-    <t>12.457 (420)</t>
+    <t>12.455 (420)</t>
   </si>
   <si>
     <t>12.914 (420)</t>
@@ -2566,7 +2566,7 @@
     <t>38.375 (80)</t>
   </si>
   <si>
-    <t>11.4 (80)</t>
+    <t>11.412 (80)</t>
   </si>
   <si>
     <t>12.462 (80)</t>
@@ -2725,7 +2725,7 @@
     <t>38.739 (418)</t>
   </si>
   <si>
-    <t>12.342 (418)</t>
+    <t>12.34 (418)</t>
   </si>
   <si>
     <t>12.732 (418)</t>
@@ -2779,7 +2779,7 @@
     <t>38.92 (485)</t>
   </si>
   <si>
-    <t>12.194 (485)</t>
+    <t>12.19 (485)</t>
   </si>
   <si>
     <t>12.744 (485)</t>
@@ -2833,7 +2833,7 @@
     <t>37.407 (162)</t>
   </si>
   <si>
-    <t>12.099 (162)</t>
+    <t>12.111 (162)</t>
   </si>
   <si>
     <t>12.858 (162)</t>
@@ -2887,9 +2887,6 @@
     <t>32.222 (9)</t>
   </si>
   <si>
-    <t>12.889 (9)</t>
-  </si>
-  <si>
     <t>14.222 (9)</t>
   </si>
   <si>
@@ -2983,7 +2980,7 @@
     <t>38.205 (254)</t>
   </si>
   <si>
-    <t>12.783 (254)</t>
+    <t>12.787 (254)</t>
   </si>
   <si>
     <t>13.524 (254)</t>
@@ -3037,7 +3034,7 @@
     <t>37.309 (602)</t>
   </si>
   <si>
-    <t>12.583 (602)</t>
+    <t>12.581 (602)</t>
   </si>
   <si>
     <t>13.025 (602)</t>
@@ -3145,7 +3142,7 @@
     <t>30.722 (18)</t>
   </si>
   <si>
-    <t>12.556 (18)</t>
+    <t>12.611 (18)</t>
   </si>
   <si>
     <t>12.722 (18)</t>
@@ -3250,7 +3247,7 @@
     <t>38.432 (514)</t>
   </si>
   <si>
-    <t>12.467 (514)</t>
+    <t>12.469 (514)</t>
   </si>
   <si>
     <t>13.082 (514)</t>
@@ -3304,7 +3301,7 @@
     <t>36.187 (364)</t>
   </si>
   <si>
-    <t>12.723 (364)</t>
+    <t>12.717 (364)</t>
   </si>
   <si>
     <t>13.354 (364)</t>
@@ -3358,7 +3355,7 @@
     <t>36.417 (60)</t>
   </si>
   <si>
-    <t>12.15 (60)</t>
+    <t>12.183 (60)</t>
   </si>
   <si>
     <t>13.183 (60)</t>
@@ -3574,7 +3571,7 @@
     <t>35.874 (135)</t>
   </si>
   <si>
-    <t>12.304 (135)</t>
+    <t>12.311 (135)</t>
   </si>
   <si>
     <t>13.007 (135)</t>
@@ -3736,7 +3733,7 @@
     <t>37.675 (268)</t>
   </si>
   <si>
-    <t>12.549 (268)</t>
+    <t>12.552 (268)</t>
   </si>
   <si>
     <t>13.317 (268)</t>
@@ -3790,7 +3787,7 @@
     <t>38.09 (490)</t>
   </si>
   <si>
-    <t>12.741 (490)</t>
+    <t>12.737 (490)</t>
   </si>
   <si>
     <t>13.227 (490)</t>
@@ -3844,7 +3841,7 @@
     <t>37.07 (242)</t>
   </si>
   <si>
-    <t>12.38 (242)</t>
+    <t>12.388 (242)</t>
   </si>
   <si>
     <t>13.033 (242)</t>
@@ -4416,10 +4413,10 @@
         <v>3.12</v>
       </c>
       <c r="I2">
-        <v>2.1</v>
+        <v>2.197</v>
       </c>
       <c r="J2">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4448,10 +4445,10 @@
         <v>-0.423</v>
       </c>
       <c r="I3">
-        <v>-0.308</v>
+        <v>-0.26</v>
       </c>
       <c r="J3">
-        <v>0.758</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4480,10 +4477,10 @@
         <v>0.034</v>
       </c>
       <c r="I4">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="J4">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4512,10 +4509,10 @@
         <v>-1.204</v>
       </c>
       <c r="I5">
-        <v>-0.632</v>
+        <v>-0.546</v>
       </c>
       <c r="J5">
-        <v>0.528</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4544,10 +4541,10 @@
         <v>-1.125</v>
       </c>
       <c r="I6">
-        <v>-0.581</v>
+        <v>-0.464</v>
       </c>
       <c r="J6">
-        <v>0.5610000000000001</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4576,10 +4573,10 @@
         <v>-4.179</v>
       </c>
       <c r="I7">
-        <v>-2.133</v>
+        <v>-2.054</v>
       </c>
       <c r="J7">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4605,13 +4602,13 @@
         <v>0.038</v>
       </c>
       <c r="H8">
-        <v>-1.485</v>
+        <v>-1.509</v>
       </c>
       <c r="I8">
-        <v>-2.284</v>
+        <v>-2.401</v>
       </c>
       <c r="J8">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4640,10 +4637,10 @@
         <v>0.22</v>
       </c>
       <c r="I9">
-        <v>0.336</v>
+        <v>0.279</v>
       </c>
       <c r="J9">
-        <v>0.737</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4672,10 +4669,10 @@
         <v>0.013</v>
       </c>
       <c r="I10">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="J10">
-        <v>0.986</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4704,10 +4701,10 @@
         <v>0.607</v>
       </c>
       <c r="I11">
-        <v>0.803</v>
+        <v>0.673</v>
       </c>
       <c r="J11">
-        <v>0.422</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4736,10 +4733,10 @@
         <v>0.15</v>
       </c>
       <c r="I12">
-        <v>0.195</v>
+        <v>0.162</v>
       </c>
       <c r="J12">
-        <v>0.845</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4768,10 +4765,10 @@
         <v>1.31</v>
       </c>
       <c r="I13">
-        <v>1.732</v>
+        <v>1.673</v>
       </c>
       <c r="J13">
-        <v>0.08400000000000001</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4800,10 +4797,10 @@
         <v>-0.012</v>
       </c>
       <c r="I14">
-        <v>-1.024</v>
+        <v>-1.053</v>
       </c>
       <c r="J14">
-        <v>0.306</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4832,10 +4829,10 @@
         <v>-0.006</v>
       </c>
       <c r="I15">
-        <v>-0.484</v>
+        <v>-0.399</v>
       </c>
       <c r="J15">
-        <v>0.629</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4864,10 +4861,10 @@
         <v>-0.026</v>
       </c>
       <c r="I16">
-        <v>-1.904</v>
+        <v>-1.49</v>
       </c>
       <c r="J16">
-        <v>0.057</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4896,10 +4893,10 @@
         <v>-0.02</v>
       </c>
       <c r="I17">
-        <v>-1.408</v>
+        <v>-1.311</v>
       </c>
       <c r="J17">
-        <v>0.159</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4928,10 +4925,10 @@
         <v>-0.013</v>
       </c>
       <c r="I18">
-        <v>-0.901</v>
+        <v>-0.753</v>
       </c>
       <c r="J18">
-        <v>0.368</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4960,10 +4957,10 @@
         <v>0.003</v>
       </c>
       <c r="I19">
-        <v>0.172</v>
+        <v>0.181</v>
       </c>
       <c r="J19">
-        <v>0.864</v>
+        <v>0.856</v>
       </c>
     </row>
   </sheetData>
@@ -5056,10 +5053,10 @@
         <v>2.768</v>
       </c>
       <c r="J2">
-        <v>1.685</v>
+        <v>1.602</v>
       </c>
       <c r="K2">
-        <v>0.092</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5091,10 +5088,10 @@
         <v>0.287</v>
       </c>
       <c r="J3">
-        <v>0.201</v>
+        <v>0.179</v>
       </c>
       <c r="K3">
-        <v>0.841</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5126,10 +5123,10 @@
         <v>2.04</v>
       </c>
       <c r="J4">
-        <v>0.956</v>
+        <v>0.864</v>
       </c>
       <c r="K4">
-        <v>0.339</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5161,10 +5158,10 @@
         <v>0.138</v>
       </c>
       <c r="J5">
-        <v>0.064</v>
+        <v>0.055</v>
       </c>
       <c r="K5">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5196,10 +5193,10 @@
         <v>1.486</v>
       </c>
       <c r="J6">
-        <v>0.678</v>
+        <v>0.601</v>
       </c>
       <c r="K6">
-        <v>0.498</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5231,10 +5228,10 @@
         <v>-0.049</v>
       </c>
       <c r="J7">
-        <v>-0.022</v>
+        <v>-0.024</v>
       </c>
       <c r="K7">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5263,13 +5260,13 @@
         <v>0.036</v>
       </c>
       <c r="I8">
-        <v>-1.496</v>
+        <v>-1.488</v>
       </c>
       <c r="J8">
-        <v>-2.016</v>
+        <v>-1.879</v>
       </c>
       <c r="K8">
-        <v>0.044</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5301,10 +5298,10 @@
         <v>-0.139</v>
       </c>
       <c r="J9">
-        <v>-0.192</v>
+        <v>-0.169</v>
       </c>
       <c r="K9">
-        <v>0.848</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5336,10 +5333,10 @@
         <v>-1.06</v>
       </c>
       <c r="J10">
-        <v>-1.215</v>
+        <v>-1.033</v>
       </c>
       <c r="K10">
-        <v>0.225</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5371,10 +5368,10 @@
         <v>0.055</v>
       </c>
       <c r="J11">
-        <v>0.063</v>
+        <v>0.055</v>
       </c>
       <c r="K11">
-        <v>0.95</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5406,10 +5403,10 @@
         <v>-0.45</v>
       </c>
       <c r="J12">
-        <v>-0.516</v>
+        <v>-0.474</v>
       </c>
       <c r="K12">
-        <v>0.606</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5441,10 +5438,10 @@
         <v>-0.205</v>
       </c>
       <c r="J13">
-        <v>-0.238</v>
+        <v>-0.252</v>
       </c>
       <c r="K13">
-        <v>0.8120000000000001</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5476,10 +5473,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.654</v>
+        <v>-0.657</v>
       </c>
       <c r="K14">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5511,10 +5508,10 @@
         <v>-0.015</v>
       </c>
       <c r="J15">
-        <v>-1.083</v>
+        <v>-0.9320000000000001</v>
       </c>
       <c r="K15">
-        <v>0.279</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5546,10 +5543,10 @@
         <v>-0.018</v>
       </c>
       <c r="J16">
-        <v>-1.099</v>
+        <v>-0.798</v>
       </c>
       <c r="K16">
-        <v>0.272</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5581,10 +5578,10 @@
         <v>-0.032</v>
       </c>
       <c r="J17">
-        <v>-1.931</v>
+        <v>-1.666</v>
       </c>
       <c r="K17">
-        <v>0.054</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5616,10 +5613,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-1.139</v>
+        <v>-0.96</v>
       </c>
       <c r="K18">
-        <v>0.255</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5651,10 +5648,10 @@
         <v>0.016</v>
       </c>
       <c r="J19">
-        <v>0.9320000000000001</v>
+        <v>0.857</v>
       </c>
       <c r="K19">
-        <v>0.352</v>
+        <v>0.391</v>
       </c>
     </row>
   </sheetData>
@@ -5754,10 +5751,10 @@
         <v>2.741</v>
       </c>
       <c r="K2">
-        <v>1.441</v>
+        <v>1.381</v>
       </c>
       <c r="L2">
-        <v>0.15</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5792,10 +5789,10 @@
         <v>1.077</v>
       </c>
       <c r="K3">
-        <v>0.65</v>
+        <v>0.623</v>
       </c>
       <c r="L3">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5830,10 +5827,10 @@
         <v>1.002</v>
       </c>
       <c r="K4">
-        <v>0.405</v>
+        <v>0.353</v>
       </c>
       <c r="L4">
-        <v>0.6850000000000001</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5868,10 +5865,10 @@
         <v>-2.087</v>
       </c>
       <c r="K5">
-        <v>-0.835</v>
+        <v>-0.733</v>
       </c>
       <c r="L5">
-        <v>0.404</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5906,10 +5903,10 @@
         <v>-0.826</v>
       </c>
       <c r="K6">
-        <v>-0.325</v>
+        <v>-0.254</v>
       </c>
       <c r="L6">
-        <v>0.745</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5944,10 +5941,10 @@
         <v>-2.176</v>
       </c>
       <c r="K7">
-        <v>-0.85</v>
+        <v>-0.79</v>
       </c>
       <c r="L7">
-        <v>0.396</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5979,13 +5976,13 @@
         <v>0.027</v>
       </c>
       <c r="J8">
-        <v>-1.56</v>
+        <v>-1.557</v>
       </c>
       <c r="K8">
-        <v>-1.813</v>
+        <v>-1.698</v>
       </c>
       <c r="L8">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6020,10 +6017,10 @@
         <v>-0.501</v>
       </c>
       <c r="K9">
-        <v>-0.598</v>
+        <v>-0.536</v>
       </c>
       <c r="L9">
-        <v>0.55</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6058,10 +6055,10 @@
         <v>-0.504</v>
       </c>
       <c r="K10">
-        <v>-0.499</v>
+        <v>-0.421</v>
       </c>
       <c r="L10">
-        <v>0.618</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6096,10 +6093,10 @@
         <v>0.928</v>
       </c>
       <c r="K11">
-        <v>0.92</v>
+        <v>0.846</v>
       </c>
       <c r="L11">
-        <v>0.358</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6134,10 +6131,10 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="K12">
-        <v>0.556</v>
+        <v>0.446</v>
       </c>
       <c r="L12">
-        <v>0.578</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6172,10 +6169,10 @@
         <v>0.632</v>
       </c>
       <c r="K13">
-        <v>0.635</v>
+        <v>0.602</v>
       </c>
       <c r="L13">
-        <v>0.526</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6210,10 +6207,10 @@
         <v>-0.015</v>
       </c>
       <c r="K14">
-        <v>-0.991</v>
+        <v>-0.945</v>
       </c>
       <c r="L14">
-        <v>0.322</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6248,10 +6245,10 @@
         <v>-0.028</v>
       </c>
       <c r="K15">
-        <v>-1.703</v>
+        <v>-1.501</v>
       </c>
       <c r="L15">
-        <v>0.089</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6286,10 +6283,10 @@
         <v>-0.03</v>
       </c>
       <c r="K16">
-        <v>-1.617</v>
+        <v>-1.167</v>
       </c>
       <c r="L16">
-        <v>0.106</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6324,10 +6321,10 @@
         <v>-0.04</v>
       </c>
       <c r="K17">
-        <v>-2.069</v>
+        <v>-1.616</v>
       </c>
       <c r="L17">
-        <v>0.039</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6362,10 +6359,10 @@
         <v>-0.031</v>
       </c>
       <c r="K18">
-        <v>-1.538</v>
+        <v>-1.312</v>
       </c>
       <c r="L18">
-        <v>0.124</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6400,10 +6397,10 @@
         <v>0.018</v>
       </c>
       <c r="K19">
-        <v>0.883</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="L19">
-        <v>0.377</v>
+        <v>0.414</v>
       </c>
     </row>
   </sheetData>
@@ -6491,7 +6488,7 @@
         <v>946</v>
       </c>
       <c r="G2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H2">
         <v>1172</v>
@@ -6503,10 +6500,10 @@
         <v>3.463</v>
       </c>
       <c r="K2">
-        <v>1.576</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6529,7 +6526,7 @@
         <v>947</v>
       </c>
       <c r="G3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H3">
         <v>1172</v>
@@ -6541,10 +6538,10 @@
         <v>0.607</v>
       </c>
       <c r="K3">
-        <v>0.317</v>
+        <v>0.279</v>
       </c>
       <c r="L3">
-        <v>0.751</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6567,7 +6564,7 @@
         <v>948</v>
       </c>
       <c r="G4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H4">
         <v>1172</v>
@@ -6579,10 +6576,10 @@
         <v>-0.609</v>
       </c>
       <c r="K4">
-        <v>-0.213</v>
+        <v>-0.195</v>
       </c>
       <c r="L4">
-        <v>0.831</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6605,7 +6602,7 @@
         <v>949</v>
       </c>
       <c r="G5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H5">
         <v>1172</v>
@@ -6617,10 +6614,10 @@
         <v>-2.003</v>
       </c>
       <c r="K5">
-        <v>-0.694</v>
+        <v>-0.613</v>
       </c>
       <c r="L5">
-        <v>0.488</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6643,7 +6640,7 @@
         <v>950</v>
       </c>
       <c r="G6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H6">
         <v>1172</v>
@@ -6655,10 +6652,10 @@
         <v>-1.9</v>
       </c>
       <c r="K6">
-        <v>-0.648</v>
+        <v>-0.513</v>
       </c>
       <c r="L6">
-        <v>0.517</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6681,7 +6678,7 @@
         <v>951</v>
       </c>
       <c r="G7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H7">
         <v>1172</v>
@@ -6693,10 +6690,10 @@
         <v>0.041</v>
       </c>
       <c r="K7">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="L7">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6716,10 +6713,10 @@
         <v>934</v>
       </c>
       <c r="F8" t="s">
-        <v>952</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H8">
         <v>1172</v>
@@ -6728,13 +6725,13 @@
         <v>0.02</v>
       </c>
       <c r="J8">
-        <v>-1.615</v>
+        <v>-1.602</v>
       </c>
       <c r="K8">
-        <v>-1.625</v>
+        <v>-1.589</v>
       </c>
       <c r="L8">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6754,10 +6751,10 @@
         <v>935</v>
       </c>
       <c r="F9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H9">
         <v>1172</v>
@@ -6769,10 +6766,10 @@
         <v>-0.023</v>
       </c>
       <c r="K9">
-        <v>-0.024</v>
+        <v>-0.021</v>
       </c>
       <c r="L9">
-        <v>0.981</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6792,10 +6789,10 @@
         <v>936</v>
       </c>
       <c r="F10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H10">
         <v>1172</v>
@@ -6807,10 +6804,10 @@
         <v>-0.008</v>
       </c>
       <c r="K10">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="L10">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6830,10 +6827,10 @@
         <v>937</v>
       </c>
       <c r="F11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H11">
         <v>1172</v>
@@ -6845,10 +6842,10 @@
         <v>0.504</v>
       </c>
       <c r="K11">
-        <v>0.433</v>
+        <v>0.393</v>
       </c>
       <c r="L11">
-        <v>0.665</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6868,10 +6865,10 @@
         <v>938</v>
       </c>
       <c r="F12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H12">
         <v>1172</v>
@@ -6883,10 +6880,10 @@
         <v>1.122</v>
       </c>
       <c r="K12">
-        <v>0.961</v>
+        <v>0.802</v>
       </c>
       <c r="L12">
-        <v>0.337</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6909,7 +6906,7 @@
         <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H13">
         <v>1172</v>
@@ -6921,10 +6918,10 @@
         <v>-0.307</v>
       </c>
       <c r="K13">
-        <v>-0.267</v>
+        <v>-0.252</v>
       </c>
       <c r="L13">
-        <v>0.79</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6944,10 +6941,10 @@
         <v>940</v>
       </c>
       <c r="F14" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H14">
         <v>1172</v>
@@ -6959,10 +6956,10 @@
         <v>-0.019</v>
       </c>
       <c r="K14">
-        <v>-1.05</v>
+        <v>-1.085</v>
       </c>
       <c r="L14">
-        <v>0.294</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6982,10 +6979,10 @@
         <v>941</v>
       </c>
       <c r="F15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H15">
         <v>1172</v>
@@ -6997,10 +6994,10 @@
         <v>-0.036</v>
       </c>
       <c r="K15">
-        <v>-1.916</v>
+        <v>-1.88</v>
       </c>
       <c r="L15">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7020,10 +7017,10 @@
         <v>942</v>
       </c>
       <c r="F16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G16" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H16">
         <v>1172</v>
@@ -7035,10 +7032,10 @@
         <v>-0.032</v>
       </c>
       <c r="K16">
-        <v>-1.501</v>
+        <v>-1.33</v>
       </c>
       <c r="L16">
-        <v>0.134</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -7058,10 +7055,10 @@
         <v>943</v>
       </c>
       <c r="F17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H17">
         <v>1172</v>
@@ -7073,10 +7070,10 @@
         <v>-0.028</v>
       </c>
       <c r="K17">
-        <v>-1.235</v>
+        <v>-0.958</v>
       </c>
       <c r="L17">
-        <v>0.217</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7096,10 +7093,10 @@
         <v>944</v>
       </c>
       <c r="F18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H18">
         <v>1172</v>
@@ -7111,10 +7108,10 @@
         <v>-0.028</v>
       </c>
       <c r="K18">
-        <v>-1.193</v>
+        <v>-1.103</v>
       </c>
       <c r="L18">
-        <v>0.233</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7134,10 +7131,10 @@
         <v>945</v>
       </c>
       <c r="F19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H19">
         <v>1172</v>
@@ -7149,10 +7146,10 @@
         <v>0.024</v>
       </c>
       <c r="K19">
-        <v>1.037</v>
+        <v>1.138</v>
       </c>
       <c r="L19">
-        <v>0.3</v>
+        <v>0.255</v>
       </c>
     </row>
   </sheetData>
@@ -7217,16 +7214,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F2">
         <v>1092</v>
@@ -7238,10 +7235,10 @@
         <v>2.273</v>
       </c>
       <c r="I2">
-        <v>1.691</v>
+        <v>1.616</v>
       </c>
       <c r="J2">
-        <v>0.091</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7249,16 +7246,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F3">
         <v>1092</v>
@@ -7270,10 +7267,10 @@
         <v>1.797</v>
       </c>
       <c r="I3">
-        <v>1.563</v>
+        <v>1.343</v>
       </c>
       <c r="J3">
-        <v>0.118</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7281,16 +7278,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F4">
         <v>1092</v>
@@ -7302,10 +7299,10 @@
         <v>1.742</v>
       </c>
       <c r="I4">
-        <v>0.96</v>
+        <v>0.826</v>
       </c>
       <c r="J4">
-        <v>0.337</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7313,16 +7310,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F5">
         <v>1092</v>
@@ -7334,10 +7331,10 @@
         <v>-1.81</v>
       </c>
       <c r="I5">
-        <v>-0.985</v>
+        <v>-0.886</v>
       </c>
       <c r="J5">
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7345,16 +7342,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F6">
         <v>1092</v>
@@ -7366,10 +7363,10 @@
         <v>0.285</v>
       </c>
       <c r="I6">
-        <v>0.155</v>
+        <v>0.139</v>
       </c>
       <c r="J6">
-        <v>0.877</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7377,16 +7374,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F7">
         <v>1092</v>
@@ -7398,10 +7395,10 @@
         <v>-0.953</v>
       </c>
       <c r="I7">
-        <v>-0.514</v>
+        <v>-0.481</v>
       </c>
       <c r="J7">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7409,16 +7406,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F8">
         <v>1092</v>
@@ -7427,13 +7424,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>-1.111</v>
+        <v>-1.103</v>
       </c>
       <c r="I8">
-        <v>-1.779</v>
+        <v>-1.72</v>
       </c>
       <c r="J8">
-        <v>0.076</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7441,16 +7438,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F9">
         <v>1092</v>
@@ -7462,10 +7459,10 @@
         <v>-0.627</v>
       </c>
       <c r="I9">
-        <v>-1.048</v>
+        <v>-0.859</v>
       </c>
       <c r="J9">
-        <v>0.295</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7473,16 +7470,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F10">
         <v>1092</v>
@@ -7494,10 +7491,10 @@
         <v>-0.877</v>
       </c>
       <c r="I10">
-        <v>-1.177</v>
+        <v>-0.97</v>
       </c>
       <c r="J10">
-        <v>0.239</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7505,16 +7502,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F11">
         <v>1092</v>
@@ -7526,10 +7523,10 @@
         <v>0.707</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J11">
-        <v>0.342</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7537,16 +7534,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F12">
         <v>1092</v>
@@ -7558,10 +7555,10 @@
         <v>0.111</v>
       </c>
       <c r="I12">
-        <v>0.151</v>
+        <v>0.139</v>
       </c>
       <c r="J12">
-        <v>0.88</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7569,16 +7566,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F13">
         <v>1092</v>
@@ -7590,10 +7587,10 @@
         <v>0.108</v>
       </c>
       <c r="I13">
-        <v>0.15</v>
+        <v>0.144</v>
       </c>
       <c r="J13">
-        <v>0.881</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7601,16 +7598,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F14">
         <v>1092</v>
@@ -7622,10 +7619,10 @@
         <v>-0.003</v>
       </c>
       <c r="I14">
-        <v>-0.225</v>
+        <v>-0.215</v>
       </c>
       <c r="J14">
-        <v>0.822</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7633,16 +7630,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E15" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F15">
         <v>1092</v>
@@ -7654,10 +7651,10 @@
         <v>-0.005</v>
       </c>
       <c r="I15">
-        <v>-0.44</v>
+        <v>-0.376</v>
       </c>
       <c r="J15">
-        <v>0.66</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7665,16 +7662,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F16">
         <v>1092</v>
@@ -7686,10 +7683,10 @@
         <v>-0.015</v>
       </c>
       <c r="I16">
-        <v>-1.122</v>
+        <v>-0.8159999999999999</v>
       </c>
       <c r="J16">
-        <v>0.262</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7697,16 +7694,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F17">
         <v>1092</v>
@@ -7718,10 +7715,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.535</v>
+        <v>-0.479</v>
       </c>
       <c r="J17">
-        <v>0.593</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7729,16 +7726,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F18">
         <v>1092</v>
@@ -7750,10 +7747,10 @@
         <v>-0.005</v>
       </c>
       <c r="I18">
-        <v>-0.346</v>
+        <v>-0.274</v>
       </c>
       <c r="J18">
-        <v>0.73</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7761,16 +7758,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F19">
         <v>1092</v>
@@ -7785,7 +7782,7 @@
         <v>0.89</v>
       </c>
       <c r="J19">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>
@@ -7854,16 +7851,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F2" t="s">
         <v>770</v>
@@ -7878,10 +7875,10 @@
         <v>3.102</v>
       </c>
       <c r="J2">
-        <v>1.946</v>
+        <v>1.823</v>
       </c>
       <c r="K2">
-        <v>0.052</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7889,16 +7886,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F3" t="s">
         <v>771</v>
@@ -7913,10 +7910,10 @@
         <v>2.205</v>
       </c>
       <c r="J3">
-        <v>1.616</v>
+        <v>1.478</v>
       </c>
       <c r="K3">
-        <v>0.106</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7924,16 +7921,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F4" t="s">
         <v>772</v>
@@ -7948,10 +7945,10 @@
         <v>3.462</v>
       </c>
       <c r="J4">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="K4">
-        <v>0.108</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7959,16 +7956,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F5" t="s">
         <v>773</v>
@@ -7983,10 +7980,10 @@
         <v>-0.533</v>
       </c>
       <c r="J5">
-        <v>-0.244</v>
+        <v>-0.239</v>
       </c>
       <c r="K5">
-        <v>0.8070000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7994,16 +7991,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F6" t="s">
         <v>774</v>
@@ -8018,10 +8015,10 @@
         <v>2.15</v>
       </c>
       <c r="J6">
-        <v>0.987</v>
+        <v>0.982</v>
       </c>
       <c r="K6">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8029,16 +8026,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F7" t="s">
         <v>775</v>
@@ -8053,10 +8050,10 @@
         <v>-0.776</v>
       </c>
       <c r="J7">
-        <v>-0.353</v>
+        <v>-0.331</v>
       </c>
       <c r="K7">
-        <v>0.724</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8064,16 +8061,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="s">
         <v>154</v>
@@ -8085,13 +8082,13 @@
         <v>0.039</v>
       </c>
       <c r="I8">
-        <v>-1.386</v>
+        <v>-1.379</v>
       </c>
       <c r="J8">
-        <v>-1.87</v>
+        <v>-1.804</v>
       </c>
       <c r="K8">
-        <v>0.062</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8099,16 +8096,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F9" t="s">
         <v>776</v>
@@ -8123,10 +8120,10 @@
         <v>-1.026</v>
       </c>
       <c r="J9">
-        <v>-1.445</v>
+        <v>-1.276</v>
       </c>
       <c r="K9">
-        <v>0.149</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8134,16 +8131,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F10" t="s">
         <v>777</v>
@@ -8158,10 +8155,10 @@
         <v>-1.768</v>
       </c>
       <c r="J10">
-        <v>-2.003</v>
+        <v>-1.792</v>
       </c>
       <c r="K10">
-        <v>0.046</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8169,16 +8166,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F11" t="s">
         <v>778</v>
@@ -8193,10 +8190,10 @@
         <v>0.3</v>
       </c>
       <c r="J11">
-        <v>0.339</v>
+        <v>0.307</v>
       </c>
       <c r="K11">
-        <v>0.735</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8204,16 +8201,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F12" t="s">
         <v>778</v>
@@ -8228,10 +8225,10 @@
         <v>-0.622</v>
       </c>
       <c r="J12">
-        <v>-0.714</v>
+        <v>-0.725</v>
       </c>
       <c r="K12">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8239,16 +8236,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F13" t="s">
         <v>779</v>
@@ -8263,10 +8260,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="J13">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K13">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8274,16 +8271,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F14" t="s">
         <v>780</v>
@@ -8298,10 +8295,10 @@
         <v>-0.008</v>
       </c>
       <c r="J14">
-        <v>-0.569</v>
+        <v>-0.596</v>
       </c>
       <c r="K14">
-        <v>0.569</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8309,16 +8306,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D15" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E15" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F15" t="s">
         <v>781</v>
@@ -8333,10 +8330,10 @@
         <v>-0.011</v>
       </c>
       <c r="J15">
-        <v>-0.785</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="K15">
-        <v>0.433</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8344,16 +8341,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F16" t="s">
         <v>782</v>
@@ -8368,10 +8365,10 @@
         <v>-0.02</v>
       </c>
       <c r="J16">
-        <v>-1.259</v>
+        <v>-0.923</v>
       </c>
       <c r="K16">
-        <v>0.208</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8379,16 +8376,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F17" t="s">
         <v>783</v>
@@ -8403,10 +8400,10 @@
         <v>-0.041</v>
       </c>
       <c r="J17">
-        <v>-2.44</v>
+        <v>-2.175</v>
       </c>
       <c r="K17">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8414,16 +8411,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F18" t="s">
         <v>784</v>
@@ -8438,10 +8435,10 @@
         <v>-0.015</v>
       </c>
       <c r="J18">
-        <v>-0.877</v>
+        <v>-0.787</v>
       </c>
       <c r="K18">
-        <v>0.381</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8449,16 +8446,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F19" t="s">
         <v>785</v>
@@ -8473,10 +8470,10 @@
         <v>0.006</v>
       </c>
       <c r="J19">
-        <v>0.363</v>
+        <v>0.347</v>
       </c>
       <c r="K19">
-        <v>0.717</v>
+        <v>0.729</v>
       </c>
     </row>
   </sheetData>
@@ -8549,19 +8546,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G2" t="s">
         <v>446</v>
@@ -8576,10 +8573,10 @@
         <v>3.032</v>
       </c>
       <c r="K2">
-        <v>1.649</v>
+        <v>1.504</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8587,19 +8584,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G3" t="s">
         <v>447</v>
@@ -8614,10 +8611,10 @@
         <v>2.839</v>
       </c>
       <c r="K3">
-        <v>1.807</v>
+        <v>1.771</v>
       </c>
       <c r="L3">
-        <v>0.07099999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8625,19 +8622,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G4" t="s">
         <v>448</v>
@@ -8652,10 +8649,10 @@
         <v>0.889</v>
       </c>
       <c r="K4">
-        <v>0.358</v>
+        <v>0.349</v>
       </c>
       <c r="L4">
-        <v>0.72</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8663,19 +8660,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G5" t="s">
         <v>449</v>
@@ -8690,10 +8687,10 @@
         <v>-2.884</v>
       </c>
       <c r="K5">
-        <v>-1.148</v>
+        <v>-1.142</v>
       </c>
       <c r="L5">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8701,19 +8698,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G6" t="s">
         <v>450</v>
@@ -8728,10 +8725,10 @@
         <v>1.107</v>
       </c>
       <c r="K6">
-        <v>0.441</v>
+        <v>0.386</v>
       </c>
       <c r="L6">
-        <v>0.659</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8739,19 +8736,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G7" t="s">
         <v>451</v>
@@ -8766,10 +8763,10 @@
         <v>-1.541</v>
       </c>
       <c r="K7">
-        <v>-0.608</v>
+        <v>-0.538</v>
       </c>
       <c r="L7">
-        <v>0.544</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8777,19 +8774,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8801,13 +8798,13 @@
         <v>0.03</v>
       </c>
       <c r="J8">
-        <v>-1.368</v>
+        <v>-1.361</v>
       </c>
       <c r="K8">
-        <v>-1.601</v>
+        <v>-1.497</v>
       </c>
       <c r="L8">
-        <v>0.11</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8815,19 +8812,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G9" t="s">
         <v>453</v>
@@ -8842,10 +8839,10 @@
         <v>-1.268</v>
       </c>
       <c r="K9">
-        <v>-1.55</v>
+        <v>-1.423</v>
       </c>
       <c r="L9">
-        <v>0.122</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8853,19 +8850,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G10" t="s">
         <v>454</v>
@@ -8880,10 +8877,10 @@
         <v>-0.786</v>
       </c>
       <c r="K10">
-        <v>-0.771</v>
+        <v>-0.694</v>
       </c>
       <c r="L10">
-        <v>0.441</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8891,19 +8888,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G11" t="s">
         <v>455</v>
@@ -8918,10 +8915,10 @@
         <v>1.072</v>
       </c>
       <c r="K11">
-        <v>1.054</v>
+        <v>1.041</v>
       </c>
       <c r="L11">
-        <v>0.292</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8929,19 +8926,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G12" t="s">
         <v>455</v>
@@ -8956,10 +8953,10 @@
         <v>-0.184</v>
       </c>
       <c r="K12">
-        <v>-0.184</v>
+        <v>-0.166</v>
       </c>
       <c r="L12">
-        <v>0.854</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8967,19 +8964,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G13" t="s">
         <v>455</v>
@@ -8994,10 +8991,10 @@
         <v>0.274</v>
       </c>
       <c r="K13">
-        <v>0.278</v>
+        <v>0.263</v>
       </c>
       <c r="L13">
-        <v>0.781</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9005,19 +9002,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G14" t="s">
         <v>456</v>
@@ -9032,10 +9029,10 @@
         <v>-0.011</v>
       </c>
       <c r="K14">
-        <v>-0.743</v>
+        <v>-0.772</v>
       </c>
       <c r="L14">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9043,19 +9040,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E15" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F15" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G15" t="s">
         <v>457</v>
@@ -9070,10 +9067,10 @@
         <v>-0.023</v>
       </c>
       <c r="K15">
-        <v>-1.368</v>
+        <v>-1.327</v>
       </c>
       <c r="L15">
-        <v>0.172</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9081,19 +9078,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C16" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G16" t="s">
         <v>458</v>
@@ -9108,10 +9105,10 @@
         <v>-0.036</v>
       </c>
       <c r="K16">
-        <v>-1.915</v>
+        <v>-1.434</v>
       </c>
       <c r="L16">
-        <v>0.056</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9119,19 +9116,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C17" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D17" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E17" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F17" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G17" t="s">
         <v>459</v>
@@ -9146,10 +9143,10 @@
         <v>-0.05</v>
       </c>
       <c r="K17">
-        <v>-2.578</v>
+        <v>-2.227</v>
       </c>
       <c r="L17">
-        <v>0.01</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9157,19 +9154,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C18" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D18" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G18" t="s">
         <v>460</v>
@@ -9184,10 +9181,10 @@
         <v>-0.02</v>
       </c>
       <c r="K18">
-        <v>-1.023</v>
+        <v>-0.965</v>
       </c>
       <c r="L18">
-        <v>0.307</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9195,19 +9192,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G19" t="s">
         <v>461</v>
@@ -9222,10 +9219,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K19">
-        <v>0.45</v>
+        <v>0.418</v>
       </c>
       <c r="L19">
-        <v>0.653</v>
+        <v>0.676</v>
       </c>
     </row>
   </sheetData>
@@ -9298,22 +9295,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2">
         <v>1092</v>
@@ -9325,10 +9322,10 @@
         <v>2.46</v>
       </c>
       <c r="K2">
-        <v>1.172</v>
+        <v>1.084</v>
       </c>
       <c r="L2">
-        <v>0.242</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9336,22 +9333,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H3">
         <v>1092</v>
@@ -9363,10 +9360,10 @@
         <v>2.088</v>
       </c>
       <c r="K3">
-        <v>1.163</v>
+        <v>1.132</v>
       </c>
       <c r="L3">
-        <v>0.245</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9374,22 +9371,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H4">
         <v>1092</v>
@@ -9401,10 +9398,10 @@
         <v>0.12</v>
       </c>
       <c r="K4">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="L4">
-        <v>0.966</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9412,22 +9409,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H5">
         <v>1092</v>
@@ -9439,10 +9436,10 @@
         <v>-3.025</v>
       </c>
       <c r="K5">
-        <v>-1.055</v>
+        <v>-1.063</v>
       </c>
       <c r="L5">
-        <v>0.292</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9450,22 +9447,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H6">
         <v>1092</v>
@@ -9477,10 +9474,10 @@
         <v>-0.66</v>
       </c>
       <c r="K6">
-        <v>-0.23</v>
+        <v>-0.217</v>
       </c>
       <c r="L6">
-        <v>0.8179999999999999</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9488,22 +9485,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G7" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H7">
         <v>1092</v>
@@ -9515,10 +9512,10 @@
         <v>-0.484</v>
       </c>
       <c r="K7">
-        <v>-0.167</v>
+        <v>-0.163</v>
       </c>
       <c r="L7">
-        <v>0.867</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9526,22 +9523,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H8">
         <v>1092</v>
@@ -9550,13 +9547,13 @@
         <v>0.023</v>
       </c>
       <c r="J8">
-        <v>-0.887</v>
+        <v>-0.888</v>
       </c>
       <c r="K8">
-        <v>-0.909</v>
+        <v>-0.875</v>
       </c>
       <c r="L8">
-        <v>0.364</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9564,22 +9561,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H9">
         <v>1092</v>
@@ -9591,10 +9588,10 @@
         <v>-0.695</v>
       </c>
       <c r="K9">
-        <v>-0.744</v>
+        <v>-0.697</v>
       </c>
       <c r="L9">
-        <v>0.457</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9602,22 +9599,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H10">
         <v>1092</v>
@@ -9629,10 +9626,10 @@
         <v>-0.605</v>
       </c>
       <c r="K10">
-        <v>-0.52</v>
+        <v>-0.452</v>
       </c>
       <c r="L10">
-        <v>0.603</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9640,22 +9637,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C11" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H11">
         <v>1092</v>
@@ -9667,10 +9664,10 @@
         <v>0.701</v>
       </c>
       <c r="K11">
-        <v>0.604</v>
+        <v>0.591</v>
       </c>
       <c r="L11">
-        <v>0.546</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9678,22 +9675,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G12" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H12">
         <v>1092</v>
@@ -9705,10 +9702,10 @@
         <v>0.674</v>
       </c>
       <c r="K12">
-        <v>0.588</v>
+        <v>0.577</v>
       </c>
       <c r="L12">
-        <v>0.5570000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9716,22 +9713,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H13">
         <v>1092</v>
@@ -9746,7 +9743,7 @@
         <v>-0.092</v>
       </c>
       <c r="L13">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9754,19 +9751,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G14" t="s">
         <v>372</v>
@@ -9781,10 +9778,10 @@
         <v>-0.008</v>
       </c>
       <c r="K14">
-        <v>-0.471</v>
+        <v>-0.508</v>
       </c>
       <c r="L14">
-        <v>0.638</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9792,22 +9789,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D15" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F15" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H15">
         <v>1092</v>
@@ -9819,10 +9816,10 @@
         <v>-0.026</v>
       </c>
       <c r="K15">
-        <v>-1.402</v>
+        <v>-1.55</v>
       </c>
       <c r="L15">
-        <v>0.161</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9830,22 +9827,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H16">
         <v>1092</v>
@@ -9857,10 +9854,10 @@
         <v>-0.036</v>
       </c>
       <c r="K16">
-        <v>-1.679</v>
+        <v>-1.529</v>
       </c>
       <c r="L16">
-        <v>0.094</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9868,22 +9865,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C17" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E17" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F17" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G17" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H17">
         <v>1092</v>
@@ -9895,10 +9892,10 @@
         <v>-0.04</v>
       </c>
       <c r="K17">
-        <v>-1.818</v>
+        <v>-1.666</v>
       </c>
       <c r="L17">
-        <v>0.06900000000000001</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9906,22 +9903,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C18" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G18" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H18">
         <v>1092</v>
@@ -9933,10 +9930,10 @@
         <v>-0.018</v>
       </c>
       <c r="K18">
-        <v>-0.784</v>
+        <v>-0.827</v>
       </c>
       <c r="L18">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9944,22 +9941,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H19">
         <v>1092</v>
@@ -9971,10 +9968,10 @@
         <v>0.015</v>
       </c>
       <c r="K19">
-        <v>0.631</v>
+        <v>0.742</v>
       </c>
       <c r="L19">
-        <v>0.528</v>
+        <v>0.458</v>
       </c>
     </row>
   </sheetData>
@@ -10060,10 +10057,10 @@
         <v>3.911</v>
       </c>
       <c r="I2">
-        <v>2.146</v>
+        <v>2.077</v>
       </c>
       <c r="J2">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10092,10 +10089,10 @@
         <v>-1.013</v>
       </c>
       <c r="I3">
-        <v>-0.602</v>
+        <v>-0.517</v>
       </c>
       <c r="J3">
-        <v>0.548</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10124,10 +10121,10 @@
         <v>0.868</v>
       </c>
       <c r="I4">
-        <v>0.374</v>
+        <v>0.315</v>
       </c>
       <c r="J4">
-        <v>0.708</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10156,10 +10153,10 @@
         <v>-1.17</v>
       </c>
       <c r="I5">
-        <v>-0.5</v>
+        <v>-0.464</v>
       </c>
       <c r="J5">
-        <v>0.617</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10188,10 +10185,10 @@
         <v>1.29</v>
       </c>
       <c r="I6">
-        <v>0.543</v>
+        <v>0.474</v>
       </c>
       <c r="J6">
-        <v>0.587</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10220,10 +10217,10 @@
         <v>-4.982</v>
       </c>
       <c r="I7">
-        <v>-2.072</v>
+        <v>-2.039</v>
       </c>
       <c r="J7">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10249,10 +10246,10 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>-1.848</v>
+        <v>-1.861</v>
       </c>
       <c r="I8">
-        <v>-2.316</v>
+        <v>-2.31</v>
       </c>
       <c r="J8">
         <v>0.021</v>
@@ -10284,10 +10281,10 @@
         <v>0.327</v>
       </c>
       <c r="I9">
-        <v>0.407</v>
+        <v>0.343</v>
       </c>
       <c r="J9">
-        <v>0.6840000000000001</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10316,10 +10313,10 @@
         <v>-0.52</v>
       </c>
       <c r="I10">
-        <v>-0.556</v>
+        <v>-0.469</v>
       </c>
       <c r="J10">
-        <v>0.578</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10348,10 +10345,10 @@
         <v>0.474</v>
       </c>
       <c r="I11">
-        <v>0.511</v>
+        <v>0.46</v>
       </c>
       <c r="J11">
-        <v>0.61</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10380,10 +10377,10 @@
         <v>-0.783</v>
       </c>
       <c r="I12">
-        <v>-0.833</v>
+        <v>-0.762</v>
       </c>
       <c r="J12">
-        <v>0.405</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10412,10 +10409,10 @@
         <v>1.468</v>
       </c>
       <c r="I13">
-        <v>1.582</v>
+        <v>1.599</v>
       </c>
       <c r="J13">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10444,10 +10441,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-1.33</v>
+        <v>-1.409</v>
       </c>
       <c r="J14">
-        <v>0.184</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10476,10 +10473,10 @@
         <v>-0.002</v>
       </c>
       <c r="I15">
-        <v>-0.134</v>
+        <v>-0.111</v>
       </c>
       <c r="J15">
-        <v>0.894</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10508,10 +10505,10 @@
         <v>-0.028</v>
       </c>
       <c r="I16">
-        <v>-1.661</v>
+        <v>-1.301</v>
       </c>
       <c r="J16">
-        <v>0.097</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10540,10 +10537,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-1.566</v>
+        <v>-1.435</v>
       </c>
       <c r="J17">
-        <v>0.118</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10572,10 +10569,10 @@
         <v>-0.018</v>
       </c>
       <c r="I18">
-        <v>-0.977</v>
+        <v>-0.927</v>
       </c>
       <c r="J18">
-        <v>0.329</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10604,10 +10601,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.285</v>
+        <v>0.292</v>
       </c>
       <c r="J19">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
     </row>
   </sheetData>
@@ -10693,10 +10690,10 @@
         <v>4.186</v>
       </c>
       <c r="I2">
-        <v>1.909</v>
+        <v>1.688</v>
       </c>
       <c r="J2">
-        <v>0.057</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10725,10 +10722,10 @@
         <v>-0.24</v>
       </c>
       <c r="I3">
-        <v>-0.119</v>
+        <v>-0.111</v>
       </c>
       <c r="J3">
-        <v>0.906</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10757,10 +10754,10 @@
         <v>0.715</v>
       </c>
       <c r="I4">
-        <v>0.256</v>
+        <v>0.206</v>
       </c>
       <c r="J4">
-        <v>0.798</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10789,10 +10786,10 @@
         <v>-3.852</v>
       </c>
       <c r="I5">
-        <v>-1.371</v>
+        <v>-1.283</v>
       </c>
       <c r="J5">
-        <v>0.171</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10821,10 +10818,10 @@
         <v>-0.9409999999999999</v>
       </c>
       <c r="I6">
-        <v>-0.329</v>
+        <v>-0.275</v>
       </c>
       <c r="J6">
-        <v>0.742</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10853,10 +10850,10 @@
         <v>-6.839</v>
       </c>
       <c r="I7">
-        <v>-2.367</v>
+        <v>-2.24</v>
       </c>
       <c r="J7">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10882,13 +10879,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>-2.047</v>
+        <v>-2.096</v>
       </c>
       <c r="I8">
-        <v>-2.133</v>
+        <v>-1.976</v>
       </c>
       <c r="J8">
-        <v>0.033</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10917,10 +10914,10 @@
         <v>0.11</v>
       </c>
       <c r="I9">
-        <v>0.114</v>
+        <v>0.101</v>
       </c>
       <c r="J9">
-        <v>0.909</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10949,10 +10946,10 @@
         <v>-0.32</v>
       </c>
       <c r="I10">
-        <v>-0.285</v>
+        <v>-0.229</v>
       </c>
       <c r="J10">
-        <v>0.776</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10981,10 +10978,10 @@
         <v>1.249</v>
       </c>
       <c r="I11">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="J11">
-        <v>0.263</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11045,10 +11042,10 @@
         <v>2.332</v>
       </c>
       <c r="I13">
-        <v>2.091</v>
+        <v>2.134</v>
       </c>
       <c r="J13">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11077,10 +11074,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-1.193</v>
+        <v>-1.269</v>
       </c>
       <c r="J14">
-        <v>0.233</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11109,10 +11106,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-1.523</v>
+        <v>-1.312</v>
       </c>
       <c r="J15">
-        <v>0.128</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11141,10 +11138,10 @@
         <v>-0.053</v>
       </c>
       <c r="I16">
-        <v>-2.587</v>
+        <v>-2.146</v>
       </c>
       <c r="J16">
-        <v>0.01</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11173,10 +11170,10 @@
         <v>-0.04</v>
       </c>
       <c r="I17">
-        <v>-1.848</v>
+        <v>-1.551</v>
       </c>
       <c r="J17">
-        <v>0.065</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11205,7 +11202,7 @@
         <v>-0.048</v>
       </c>
       <c r="I18">
-        <v>-2.184</v>
+        <v>-2.185</v>
       </c>
       <c r="J18">
         <v>0.029</v>
@@ -11237,10 +11234,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.201</v>
+        <v>0.215</v>
       </c>
       <c r="J19">
-        <v>0.841</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -11326,10 +11323,10 @@
         <v>5.559</v>
       </c>
       <c r="I2">
-        <v>2.176</v>
+        <v>1.917</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11358,10 +11355,10 @@
         <v>-0.083</v>
       </c>
       <c r="I3">
-        <v>-0.035</v>
+        <v>-0.034</v>
       </c>
       <c r="J3">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11390,10 +11387,10 @@
         <v>-1.463</v>
       </c>
       <c r="I4">
-        <v>-0.45</v>
+        <v>-0.352</v>
       </c>
       <c r="J4">
-        <v>0.653</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11422,10 +11419,10 @@
         <v>-3.974</v>
       </c>
       <c r="I5">
-        <v>-1.213</v>
+        <v>-1.189</v>
       </c>
       <c r="J5">
-        <v>0.225</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11454,10 +11451,10 @@
         <v>-0.739</v>
       </c>
       <c r="I6">
-        <v>-0.222</v>
+        <v>-0.2</v>
       </c>
       <c r="J6">
-        <v>0.824</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11486,10 +11483,10 @@
         <v>-5.331</v>
       </c>
       <c r="I7">
-        <v>-1.581</v>
+        <v>-1.642</v>
       </c>
       <c r="J7">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11515,13 +11512,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-2.308</v>
+        <v>-2.358</v>
       </c>
       <c r="I8">
-        <v>-2.063</v>
+        <v>-1.902</v>
       </c>
       <c r="J8">
-        <v>0.039</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11550,10 +11547,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="J9">
-        <v>0.617</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11582,10 +11579,10 @@
         <v>0.439</v>
       </c>
       <c r="I10">
-        <v>0.335</v>
+        <v>0.265</v>
       </c>
       <c r="J10">
-        <v>0.738</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11614,10 +11611,10 @@
         <v>0.998</v>
       </c>
       <c r="I11">
-        <v>0.768</v>
+        <v>0.705</v>
       </c>
       <c r="J11">
-        <v>0.443</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11646,10 +11643,10 @@
         <v>-0.179</v>
       </c>
       <c r="I12">
-        <v>-0.136</v>
+        <v>-0.129</v>
       </c>
       <c r="J12">
-        <v>0.892</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11678,10 +11675,10 @@
         <v>1.675</v>
       </c>
       <c r="I13">
-        <v>1.287</v>
+        <v>1.492</v>
       </c>
       <c r="J13">
-        <v>0.198</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11710,10 +11707,10 @@
         <v>-0.022</v>
       </c>
       <c r="I14">
-        <v>-1.128</v>
+        <v>-1.168</v>
       </c>
       <c r="J14">
-        <v>0.26</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11742,10 +11739,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-1.142</v>
+        <v>-1.011</v>
       </c>
       <c r="J15">
-        <v>0.254</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11774,10 +11771,10 @@
         <v>-0.052</v>
       </c>
       <c r="I16">
-        <v>-2.186</v>
+        <v>-2.041</v>
       </c>
       <c r="J16">
-        <v>0.029</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11806,10 +11803,10 @@
         <v>-0.02</v>
       </c>
       <c r="I17">
-        <v>-0.803</v>
+        <v>-0.748</v>
       </c>
       <c r="J17">
-        <v>0.422</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11838,10 +11835,10 @@
         <v>-0.047</v>
       </c>
       <c r="I18">
-        <v>-1.844</v>
+        <v>-1.966</v>
       </c>
       <c r="J18">
-        <v>0.066</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11870,10 +11867,10 @@
         <v>0.012</v>
       </c>
       <c r="I19">
-        <v>0.445</v>
+        <v>0.514</v>
       </c>
       <c r="J19">
-        <v>0.657</v>
+        <v>0.607</v>
       </c>
     </row>
   </sheetData>
@@ -11959,10 +11956,10 @@
         <v>1.187</v>
       </c>
       <c r="I2">
-        <v>0.841</v>
+        <v>0.795</v>
       </c>
       <c r="J2">
-        <v>0.401</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11991,10 +11988,10 @@
         <v>-0.273</v>
       </c>
       <c r="I3">
-        <v>-0.214</v>
+        <v>-0.179</v>
       </c>
       <c r="J3">
-        <v>0.831</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12023,10 +12020,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.377</v>
+        <v>0.312</v>
       </c>
       <c r="J4">
-        <v>0.706</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12055,10 +12052,10 @@
         <v>-0.275</v>
       </c>
       <c r="I5">
-        <v>-0.151</v>
+        <v>-0.147</v>
       </c>
       <c r="J5">
-        <v>0.88</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12087,10 +12084,10 @@
         <v>0.596</v>
       </c>
       <c r="I6">
-        <v>0.319</v>
+        <v>0.298</v>
       </c>
       <c r="J6">
-        <v>0.75</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12119,10 +12116,10 @@
         <v>-1.755</v>
       </c>
       <c r="I7">
-        <v>-0.93</v>
+        <v>-0.879</v>
       </c>
       <c r="J7">
-        <v>0.353</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12148,13 +12145,13 @@
         <v>0.045</v>
       </c>
       <c r="H8">
-        <v>-0.627</v>
+        <v>-0.636</v>
       </c>
       <c r="I8">
-        <v>-0.994</v>
+        <v>-0.947</v>
       </c>
       <c r="J8">
-        <v>0.32</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12183,10 +12180,10 @@
         <v>0.384</v>
       </c>
       <c r="I9">
-        <v>0.614</v>
+        <v>0.507</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12215,10 +12212,10 @@
         <v>-0.283</v>
       </c>
       <c r="I10">
-        <v>-0.382</v>
+        <v>-0.307</v>
       </c>
       <c r="J10">
-        <v>0.702</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12247,10 +12244,10 @@
         <v>0.135</v>
       </c>
       <c r="I11">
-        <v>0.184</v>
+        <v>0.167</v>
       </c>
       <c r="J11">
-        <v>0.854</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12279,10 +12276,10 @@
         <v>-0.229</v>
       </c>
       <c r="I12">
-        <v>-0.308</v>
+        <v>-0.292</v>
       </c>
       <c r="J12">
-        <v>0.758</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12311,10 +12308,10 @@
         <v>0.318</v>
       </c>
       <c r="I13">
-        <v>0.434</v>
+        <v>0.409</v>
       </c>
       <c r="J13">
-        <v>0.665</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12343,10 +12340,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.535</v>
+        <v>-0.604</v>
       </c>
       <c r="J14">
-        <v>0.593</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12375,10 +12372,10 @@
         <v>-0.008</v>
       </c>
       <c r="I15">
-        <v>-0.675</v>
+        <v>-0.645</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12407,10 +12404,10 @@
         <v>-0.018</v>
       </c>
       <c r="I16">
-        <v>-1.3</v>
+        <v>-1.051</v>
       </c>
       <c r="J16">
-        <v>0.194</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12439,10 +12436,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-1.017</v>
+        <v>-0.931</v>
       </c>
       <c r="J17">
-        <v>0.309</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12471,10 +12468,10 @@
         <v>-0.008</v>
       </c>
       <c r="I18">
-        <v>-0.55</v>
+        <v>-0.533</v>
       </c>
       <c r="J18">
-        <v>0.582</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12503,10 +12500,10 @@
         <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.717</v>
+        <v>0.744</v>
       </c>
       <c r="J19">
-        <v>0.474</v>
+        <v>0.457</v>
       </c>
     </row>
   </sheetData>
@@ -12599,10 +12596,10 @@
         <v>0.758</v>
       </c>
       <c r="J2">
-        <v>0.442</v>
+        <v>0.425</v>
       </c>
       <c r="K2">
-        <v>0.659</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12634,10 +12631,10 @@
         <v>-0.898</v>
       </c>
       <c r="J3">
-        <v>-0.58</v>
+        <v>-0.482</v>
       </c>
       <c r="K3">
-        <v>0.5620000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12669,10 +12666,10 @@
         <v>0.838</v>
       </c>
       <c r="J4">
-        <v>0.38</v>
+        <v>0.329</v>
       </c>
       <c r="K4">
-        <v>0.704</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12704,10 +12701,10 @@
         <v>-0.195</v>
       </c>
       <c r="J5">
-        <v>-0.08799999999999999</v>
+        <v>-0.083</v>
       </c>
       <c r="K5">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12739,10 +12736,10 @@
         <v>1.826</v>
       </c>
       <c r="J6">
-        <v>0.806</v>
+        <v>0.759</v>
       </c>
       <c r="K6">
-        <v>0.42</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12774,10 +12771,10 @@
         <v>-2.257</v>
       </c>
       <c r="J7">
-        <v>-0.984</v>
+        <v>-1.041</v>
       </c>
       <c r="K7">
-        <v>0.325</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12809,10 +12806,10 @@
         <v>-0.404</v>
       </c>
       <c r="J8">
-        <v>-0.527</v>
+        <v>-0.505</v>
       </c>
       <c r="K8">
-        <v>0.598</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12844,10 +12841,10 @@
         <v>0.5</v>
       </c>
       <c r="J9">
-        <v>0.658</v>
+        <v>0.537</v>
       </c>
       <c r="K9">
-        <v>0.511</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12879,10 +12876,10 @@
         <v>-0.677</v>
       </c>
       <c r="J10">
-        <v>-0.752</v>
+        <v>-0.623</v>
       </c>
       <c r="K10">
-        <v>0.452</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12914,10 +12911,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="J11">
-        <v>0.096</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K11">
-        <v>0.924</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12949,10 +12946,10 @@
         <v>-0.709</v>
       </c>
       <c r="J12">
-        <v>-0.786</v>
+        <v>-0.739</v>
       </c>
       <c r="K12">
-        <v>0.432</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12984,10 +12981,10 @@
         <v>0.452</v>
       </c>
       <c r="J13">
-        <v>0.507</v>
+        <v>0.544</v>
       </c>
       <c r="K13">
-        <v>0.612</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13019,10 +13016,10 @@
         <v>-0.018</v>
       </c>
       <c r="J14">
-        <v>-1.34</v>
+        <v>-1.421</v>
       </c>
       <c r="K14">
-        <v>0.181</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13054,10 +13051,10 @@
         <v>-0.01</v>
       </c>
       <c r="J15">
-        <v>-0.705</v>
+        <v>-0.605</v>
       </c>
       <c r="K15">
-        <v>0.481</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13089,10 +13086,10 @@
         <v>-0.024</v>
       </c>
       <c r="J16">
-        <v>-1.477</v>
+        <v>-1.115</v>
       </c>
       <c r="K16">
-        <v>0.14</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13124,10 +13121,10 @@
         <v>-0.036</v>
       </c>
       <c r="J17">
-        <v>-2.111</v>
+        <v>-1.792</v>
       </c>
       <c r="K17">
-        <v>0.035</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13159,10 +13156,10 @@
         <v>-0.012</v>
       </c>
       <c r="J18">
-        <v>-0.694</v>
+        <v>-0.661</v>
       </c>
       <c r="K18">
-        <v>0.488</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13194,10 +13191,10 @@
         <v>0.022</v>
       </c>
       <c r="J19">
-        <v>1.179</v>
+        <v>1.139</v>
       </c>
       <c r="K19">
-        <v>0.239</v>
+        <v>0.255</v>
       </c>
     </row>
   </sheetData>
@@ -13290,10 +13287,10 @@
         <v>0.525</v>
       </c>
       <c r="J2">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="K2">
-        <v>0.793</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13325,10 +13322,10 @@
         <v>-0.441</v>
       </c>
       <c r="J3">
-        <v>-0.244</v>
+        <v>-0.23</v>
       </c>
       <c r="K3">
-        <v>0.8070000000000001</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13360,10 +13357,10 @@
         <v>-0.281</v>
       </c>
       <c r="J4">
-        <v>-0.109</v>
+        <v>-0.09</v>
       </c>
       <c r="K4">
-        <v>0.913</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13395,10 +13392,10 @@
         <v>-2.273</v>
       </c>
       <c r="J5">
-        <v>-0.88</v>
+        <v>-0.857</v>
       </c>
       <c r="K5">
-        <v>0.379</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13430,10 +13427,10 @@
         <v>0.478</v>
       </c>
       <c r="J6">
-        <v>0.181</v>
+        <v>0.152</v>
       </c>
       <c r="K6">
-        <v>0.857</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13465,10 +13462,10 @@
         <v>-3.845</v>
       </c>
       <c r="J7">
-        <v>-1.437</v>
+        <v>-1.322</v>
       </c>
       <c r="K7">
-        <v>0.151</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13497,13 +13494,13 @@
         <v>0.023</v>
       </c>
       <c r="I8">
-        <v>-0.369</v>
+        <v>-0.38</v>
       </c>
       <c r="J8">
-        <v>-0.412</v>
+        <v>-0.404</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13535,10 +13532,10 @@
         <v>0.439</v>
       </c>
       <c r="J9">
-        <v>0.495</v>
+        <v>0.424</v>
       </c>
       <c r="K9">
-        <v>0.621</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13570,10 +13567,10 @@
         <v>-0.049</v>
       </c>
       <c r="J10">
-        <v>-0.047</v>
+        <v>-0.037</v>
       </c>
       <c r="K10">
-        <v>0.963</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13605,10 +13602,10 @@
         <v>0.752</v>
       </c>
       <c r="J11">
-        <v>0.722</v>
+        <v>0.701</v>
       </c>
       <c r="K11">
-        <v>0.47</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13640,10 +13637,10 @@
         <v>-0.112</v>
       </c>
       <c r="J12">
-        <v>-0.107</v>
+        <v>-0.092</v>
       </c>
       <c r="K12">
-        <v>0.915</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13675,10 +13672,10 @@
         <v>1.035</v>
       </c>
       <c r="J13">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="K13">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13710,7 +13707,7 @@
         <v>-0.037</v>
       </c>
       <c r="J14">
-        <v>-2.329</v>
+        <v>-2.32</v>
       </c>
       <c r="K14">
         <v>0.02</v>
@@ -13745,10 +13742,10 @@
         <v>-0.033</v>
       </c>
       <c r="J15">
-        <v>-1.945</v>
+        <v>-1.725</v>
       </c>
       <c r="K15">
-        <v>0.052</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13780,10 +13777,10 @@
         <v>-0.05</v>
       </c>
       <c r="J16">
-        <v>-2.64</v>
+        <v>-2.011</v>
       </c>
       <c r="K16">
-        <v>0.008</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13815,10 +13812,10 @@
         <v>-0.052</v>
       </c>
       <c r="J17">
-        <v>-2.594</v>
+        <v>-1.975</v>
       </c>
       <c r="K17">
-        <v>0.01</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13850,10 +13847,10 @@
         <v>-0.032</v>
       </c>
       <c r="J18">
-        <v>-1.534</v>
+        <v>-1.518</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13885,10 +13882,10 @@
         <v>0.023</v>
       </c>
       <c r="J19">
-        <v>1.081</v>
+        <v>0.994</v>
       </c>
       <c r="K19">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -13981,10 +13978,10 @@
         <v>1.825</v>
       </c>
       <c r="J2">
-        <v>0.787</v>
+        <v>0.76</v>
       </c>
       <c r="K2">
-        <v>0.432</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14016,10 +14013,10 @@
         <v>-0.872</v>
       </c>
       <c r="J3">
-        <v>-0.417</v>
+        <v>-0.354</v>
       </c>
       <c r="K3">
-        <v>0.677</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14051,10 +14048,10 @@
         <v>-2.018</v>
       </c>
       <c r="J4">
-        <v>-0.676</v>
+        <v>-0.606</v>
       </c>
       <c r="K4">
-        <v>0.499</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14086,10 +14083,10 @@
         <v>-3.001</v>
       </c>
       <c r="J5">
-        <v>-1.003</v>
+        <v>-0.999</v>
       </c>
       <c r="K5">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14121,10 +14118,10 @@
         <v>-0.346</v>
       </c>
       <c r="J6">
-        <v>-0.113</v>
+        <v>-0.099</v>
       </c>
       <c r="K6">
-        <v>0.91</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14156,10 +14153,10 @@
         <v>-1.974</v>
       </c>
       <c r="J7">
-        <v>-0.637</v>
+        <v>-0.624</v>
       </c>
       <c r="K7">
-        <v>0.524</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14188,13 +14185,13 @@
         <v>0.017</v>
       </c>
       <c r="I8">
-        <v>-0.731</v>
+        <v>-0.732</v>
       </c>
       <c r="J8">
-        <v>-0.705</v>
+        <v>-0.673</v>
       </c>
       <c r="K8">
-        <v>0.481</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14226,10 +14223,10 @@
         <v>1.025</v>
       </c>
       <c r="J9">
-        <v>0.998</v>
+        <v>0.82</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14261,10 +14258,10 @@
         <v>0.521</v>
       </c>
       <c r="J10">
-        <v>0.428</v>
+        <v>0.358</v>
       </c>
       <c r="K10">
-        <v>0.669</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14296,10 +14293,10 @@
         <v>0.657</v>
       </c>
       <c r="J11">
-        <v>0.545</v>
+        <v>0.542</v>
       </c>
       <c r="K11">
-        <v>0.586</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14331,10 +14328,10 @@
         <v>0.049</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="K12">
-        <v>0.968</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14366,10 +14363,10 @@
         <v>0.254</v>
       </c>
       <c r="J13">
-        <v>0.211</v>
+        <v>0.215</v>
       </c>
       <c r="K13">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14401,10 +14398,10 @@
         <v>-0.039</v>
       </c>
       <c r="J14">
-        <v>-2.17</v>
+        <v>-2.209</v>
       </c>
       <c r="K14">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14436,10 +14433,10 @@
         <v>-0.033</v>
       </c>
       <c r="J15">
-        <v>-1.713</v>
+        <v>-1.615</v>
       </c>
       <c r="K15">
-        <v>0.08699999999999999</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14471,10 +14468,10 @@
         <v>-0.053</v>
       </c>
       <c r="J16">
-        <v>-2.406</v>
+        <v>-2.293</v>
       </c>
       <c r="K16">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14506,10 +14503,10 @@
         <v>-0.038</v>
       </c>
       <c r="J17">
-        <v>-1.634</v>
+        <v>-1.337</v>
       </c>
       <c r="K17">
-        <v>0.103</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14541,10 +14538,10 @@
         <v>-0.03</v>
       </c>
       <c r="J18">
-        <v>-1.247</v>
+        <v>-1.305</v>
       </c>
       <c r="K18">
-        <v>0.213</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14576,10 +14573,10 @@
         <v>0.03</v>
       </c>
       <c r="J19">
-        <v>1.199</v>
+        <v>1.263</v>
       </c>
       <c r="K19">
-        <v>0.231</v>
+        <v>0.207</v>
       </c>
     </row>
   </sheetData>
@@ -14665,10 +14662,10 @@
         <v>2.781</v>
       </c>
       <c r="I2">
-        <v>2.017</v>
+        <v>1.861</v>
       </c>
       <c r="J2">
-        <v>0.044</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14697,10 +14694,10 @@
         <v>0.955</v>
       </c>
       <c r="I3">
-        <v>0.795</v>
+        <v>0.67</v>
       </c>
       <c r="J3">
-        <v>0.427</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14729,10 +14726,10 @@
         <v>1.985</v>
       </c>
       <c r="I4">
-        <v>1.108</v>
+        <v>0.923</v>
       </c>
       <c r="J4">
-        <v>0.268</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14761,10 +14758,10 @@
         <v>-0.297</v>
       </c>
       <c r="I5">
-        <v>-0.164</v>
+        <v>-0.146</v>
       </c>
       <c r="J5">
-        <v>0.87</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14793,10 +14790,10 @@
         <v>0.399</v>
       </c>
       <c r="I6">
-        <v>0.217</v>
+        <v>0.189</v>
       </c>
       <c r="J6">
-        <v>0.828</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14825,10 +14822,10 @@
         <v>-0.035</v>
       </c>
       <c r="I7">
-        <v>-0.019</v>
+        <v>-0.018</v>
       </c>
       <c r="J7">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14854,13 +14851,13 @@
         <v>0.051</v>
       </c>
       <c r="H8">
-        <v>-1.492</v>
+        <v>-1.491</v>
       </c>
       <c r="I8">
-        <v>-2.393</v>
+        <v>-2.208</v>
       </c>
       <c r="J8">
-        <v>0.017</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14889,10 +14886,10 @@
         <v>-0.264</v>
       </c>
       <c r="I9">
-        <v>-0.434</v>
+        <v>-0.367</v>
       </c>
       <c r="J9">
-        <v>0.665</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14921,10 +14918,10 @@
         <v>-0.855</v>
       </c>
       <c r="I10">
-        <v>-1.166</v>
+        <v>-0.925</v>
       </c>
       <c r="J10">
-        <v>0.244</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14953,10 +14950,10 @@
         <v>0.204</v>
       </c>
       <c r="I11">
-        <v>0.279</v>
+        <v>0.241</v>
       </c>
       <c r="J11">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14985,10 +14982,10 @@
         <v>0.057</v>
       </c>
       <c r="I12">
-        <v>0.078</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J12">
-        <v>0.9379999999999999</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -15017,10 +15014,10 @@
         <v>-0.258</v>
       </c>
       <c r="I13">
-        <v>-0.357</v>
+        <v>-0.346</v>
       </c>
       <c r="J13">
-        <v>0.721</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15049,10 +15046,10 @@
         <v>-0.003</v>
       </c>
       <c r="I14">
-        <v>-0.24</v>
+        <v>-0.233</v>
       </c>
       <c r="J14">
-        <v>0.8100000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15081,10 +15078,10 @@
         <v>-0.014</v>
       </c>
       <c r="I15">
-        <v>-1.17</v>
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>0.242</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15113,10 +15110,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-0.966</v>
+        <v>-0.7</v>
       </c>
       <c r="J16">
-        <v>0.334</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -15145,10 +15142,10 @@
         <v>-0.011</v>
       </c>
       <c r="I17">
-        <v>-0.783</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="J17">
-        <v>0.434</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -15177,10 +15174,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.619</v>
+        <v>-0.505</v>
       </c>
       <c r="J18">
-        <v>0.536</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -15209,10 +15206,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.978</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J19">
-        <v>0.328</v>
+        <v>0.351</v>
       </c>
     </row>
   </sheetData>
